--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1724202.470798704</v>
+        <v>1780472.089101567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6473645.874733101</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3142196.595495699</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7420216.517383442</v>
+        <v>7744355.375885915</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>264.6966215882094</v>
+        <v>181.5448872019592</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>50.63388649156</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.85798684944073</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -905,16 +907,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>312.3227686542435</v>
+        <v>69.90798579419391</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25.45099468012255</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>234.7764779060966</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1142,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>413.5722414008857</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>377.1216231871071</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>151.8323108963616</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>224.508595795419</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.64108301376439</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>149.1428625033849</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.9568991155872</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>345.7169373837475</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.3536886992978</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1819,7 +1821,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>227.5041307701016</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>169.0234758148206</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2065,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.9383353088699</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2138,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.5175082466431</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,16 +2320,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>380.3593268106412</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2476,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>36.45020302297358</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6502268539565</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.42227043795236</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.4052413122292</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>81.1549583480613</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,19 +2797,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>86.16814198231242</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>154.0313569259916</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>76.45806939971641</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.89026429995027</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>364.054132580644</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>360.4665252061825</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>48.20649381210165</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>80.14874043258263</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3511,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3563,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>245.2379843596716</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3667,16 +3669,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.6804894878781</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>39.16597592147563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3746,19 +3748,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>155.5045432680849</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3806,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>364.6399937545928</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.0200297211414</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3946,13 +3948,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>8.522152635936354</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3986,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>155.5045432680849</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.6942298771795</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>6.290917238643778</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.752026609714</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.627435922984</v>
+        <v>326.9067396299002</v>
       </c>
       <c r="D2" t="n">
-        <v>728.1635060160443</v>
+        <v>326.4832137633648</v>
       </c>
       <c r="E2" t="n">
-        <v>313.823290532941</v>
+        <v>316.1834023206656</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.973206274203</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>158.3214934345131</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>592.1650041644873</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1487.469046038896</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1301.077277918806</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1061.528538895508</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>778.730391441632</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>504.844646381154</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W4" t="n">
-        <v>504.844646381154</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X4" t="n">
-        <v>266.5007842408373</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>779.8647105585317</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1510.029467139356</v>
+        <v>636.5689113792441</v>
       </c>
       <c r="C5" t="n">
-        <v>1099.904876452626</v>
+        <v>226.4443206925142</v>
       </c>
       <c r="D5" t="n">
-        <v>1099.481350586091</v>
+        <v>226.0207948259788</v>
       </c>
       <c r="E5" t="n">
-        <v>1089.181539143392</v>
+        <v>215.7209833832796</v>
       </c>
       <c r="F5" t="n">
-        <v>668.1511270970796</v>
+        <v>198.7309753773712</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1516.210242763442</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>1516.210242763442</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X5" t="n">
-        <v>1516.210242763442</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y5" t="n">
-        <v>1516.210242763442</v>
+        <v>1046.790091043734</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N6" t="n">
-        <v>1268.263812524886</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O6" t="n">
-        <v>1785.106747191211</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.7780006329159</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="C7" t="n">
-        <v>511.7780006329159</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="D7" t="n">
-        <v>352.2833559558259</v>
+        <v>395.6343672702064</v>
       </c>
       <c r="E7" t="n">
-        <v>191.3725408241454</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1248.743306444946</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1248.743306444946</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>974.8575613844678</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>974.8575613844678</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>736.5136992441512</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>511.7780006329159</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1719.354174082983</v>
+        <v>2144.705157697622</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.229583396253</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>904.7656534893131</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>490.4254380062098</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>72.67569921743639</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>199.5339112843441</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>737.6934123933836</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1450.284812205622</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2226.603403197375</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>2226.603403197375</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>2870.23425961448</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3399.390957533632</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>3399.390957533632</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>3264.109882327733</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>3264.109882327733</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3264.109882327733</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>2914.272327664214</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2530.512026799382</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="X8" t="n">
-        <v>2530.512026799382</v>
+        <v>2935.857269874341</v>
       </c>
       <c r="Y8" t="n">
-        <v>2129.575353747472</v>
+        <v>2554.926337362112</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>746.818661037207</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>612.8235897861528</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>495.9264320055452</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>375.4336159978732</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>266.4737361803777</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>159.4836234947164</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>88.73641053043247</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>260.8006767133058</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>260.8006767133058</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>921.8888486325941</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1763.238110622168</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1763.238110622168</v>
+        <v>837.2844189208142</v>
       </c>
       <c r="O9" t="n">
-        <v>1764.632550317189</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="P9" t="n">
-        <v>1764.632550317189</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2114.477015001173</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2114.477015001173</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2006.487005115482</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1847.14514130249</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1649.794330440709</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1436.082803433742</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1222.849635170071</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1046.523653308964</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>887.1216936727936</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>392.4471621913416</v>
+        <v>421.742223795061</v>
       </c>
       <c r="C10" t="n">
-        <v>221.3537897530581</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="D10" t="n">
-        <v>221.3537897530581</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="E10" t="n">
-        <v>67.98781915067264</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="F10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>82.07036855588316</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>236.6226962781211</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>496.5197965581817</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>785.783852998675</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1066.622635392925</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1326.1832457194</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1531.858685969012</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1597.386715771523</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1597.386715771523</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1597.386715771523</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1357.837976748225</v>
+        <v>1116.975776254216</v>
       </c>
       <c r="U10" t="n">
-        <v>1357.837976748225</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="V10" t="n">
-        <v>1083.952231687747</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="W10" t="n">
-        <v>804.8825671966213</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="X10" t="n">
-        <v>804.8825671966213</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="Y10" t="n">
-        <v>580.146868585386</v>
+        <v>609.4419301891054</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2437.583748753208</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C11" t="n">
-        <v>2027.459158066478</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.995228159538</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E11" t="n">
-        <v>1208.655012676435</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6246006301225</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G11" t="n">
-        <v>378.8963165229546</v>
+        <v>444.1936930566062</v>
       </c>
       <c r="H11" t="n">
-        <v>67.98781915067264</v>
+        <v>133.2851956843242</v>
       </c>
       <c r="I11" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>322.1732906184269</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>860.3327917274664</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1572.924191539704</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1755.335590491005</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2508.516607129623</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2508.516607129623</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3037.673305048775</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3358.834311844067</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3399.390957533632</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3399.390957533632</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3399.390957533632</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>3248.741601469607</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2847.804928417697</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>187.7258600474602</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>848.8140319667484</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>848.8140319667484</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>848.8140319667484</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O12" t="n">
-        <v>1552.771122512643</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.98781915067264</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="C13" t="n">
-        <v>67.98781915067264</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>67.98781915067264</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>67.98781915067264</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>82.07036855588316</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>236.6226962781211</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>496.5197965581817</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>785.783852998675</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1066.622635392925</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1326.1832457194</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1531.858685969012</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1512.113997446922</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1325.722229326833</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1086.173490303535</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>803.3753428496591</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V13" t="n">
-        <v>529.4895977891811</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W13" t="n">
-        <v>250.4199332980554</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X13" t="n">
-        <v>67.98781915067264</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.98781915067264</v>
+        <v>594.0158422120428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1231.785367404693</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>821.6607767179631</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>417.1968468110236</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>67.98781915067264</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F14" t="n">
-        <v>67.98781915067264</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G14" t="n">
-        <v>67.98781915067264</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>322.1732906184269</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>322.1732906184269</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>979.0169994992515</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1755.335590491005</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2508.516607129623</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2508.516607129623</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3037.673305048775</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3358.834311844067</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3177.184473480491</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3177.184473480491</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.346918816972</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2443.58661795214</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2042.943220121093</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1642.006547069182</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>260.8006767133058</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>716.6069329786046</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>1377.695104897893</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M15" t="n">
-        <v>1377.695104897893</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N15" t="n">
-        <v>1377.695104897893</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O15" t="n">
-        <v>1764.632550317189</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>1764.632550317189</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.98781915067264</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="C16" t="n">
-        <v>67.98781915067264</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D16" t="n">
-        <v>67.98781915067264</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E16" t="n">
-        <v>67.98781915067264</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>67.98781915067264</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>67.98781915067264</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>82.07036855588316</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>236.6226962781211</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>496.5197965581817</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>785.783852998675</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1066.622635392925</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1326.1832457194</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1531.858685969012</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1512.113997446922</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1325.722229326833</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1086.173490303535</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>803.3753428496591</v>
+        <v>966.8999348750533</v>
       </c>
       <c r="V16" t="n">
-        <v>529.4895977891811</v>
+        <v>693.0141898145753</v>
       </c>
       <c r="W16" t="n">
-        <v>250.4199332980554</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="X16" t="n">
-        <v>67.98781915067264</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.98781915067264</v>
+        <v>413.9445253234496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L18" t="n">
-        <v>3276.783860599928</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M18" t="n">
-        <v>3396.521901496716</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>3396.521901496716</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>712.5646329884455</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>541.471260550162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>541.471260550162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>541.471260550162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1265.520042540049</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1265.520042540049</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V19" t="n">
-        <v>991.6342974795712</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W19" t="n">
-        <v>712.5646329884455</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X19" t="n">
-        <v>712.5646329884455</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.5646329884455</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2238.282892603803</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1828.158301917073</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1423.694372010133</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5786,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.844444016082</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3450.08414315125</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3049.440745320202</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2648.504072268292</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.756849250995</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X22" t="n">
-        <v>1348.756849250995</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y22" t="n">
-        <v>1348.756849250995</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5968,13 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F23" t="n">
         <v>899.2322418529996</v>
@@ -6072,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>649.8439173889626</v>
+        <v>460.6501016978888</v>
       </c>
       <c r="C25" t="n">
-        <v>649.8439173889626</v>
+        <v>289.5567292596053</v>
       </c>
       <c r="D25" t="n">
-        <v>490.3492727118726</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="E25" t="n">
-        <v>329.4384575801921</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="F25" t="n">
-        <v>329.4384575801921</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="G25" t="n">
-        <v>329.4384575801921</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6181,16 +6183,16 @@
         <v>1111.429368843485</v>
       </c>
       <c r="V25" t="n">
-        <v>837.543623783007</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W25" t="n">
-        <v>837.543623783007</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X25" t="n">
-        <v>837.543623783007</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y25" t="n">
-        <v>837.543623783007</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
         <v>2052.715036606428</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4630.445217422097</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>2945.549711724955</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>3788.526792419522</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1158.35815667694</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.093855288175</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.093855288175</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.093855288175</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X28" t="n">
-        <v>1383.093855288175</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y28" t="n">
-        <v>1158.35815667694</v>
+        <v>324.8258582872483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.572457336103</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6497,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4062.625193534336</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.873638951678</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4250.324899928381</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>4250.324899928381</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="V31" t="n">
-        <v>4250.324899928381</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W31" t="n">
-        <v>4250.324899928381</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X31" t="n">
-        <v>4250.324899928381</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y31" t="n">
-        <v>4250.324899928381</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6731,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6788,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3647.063234569817</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C34" t="n">
-        <v>3475.969862131533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3475.969862131533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.969862131533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3475.969862131533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>4576.912166206539</v>
+        <v>1324.826325745621</v>
       </c>
       <c r="U34" t="n">
-        <v>4576.912166206539</v>
+        <v>1042.028178291745</v>
       </c>
       <c r="V34" t="n">
-        <v>4576.912166206539</v>
+        <v>768.1424332312672</v>
       </c>
       <c r="W34" t="n">
-        <v>4297.842501715413</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="X34" t="n">
-        <v>4059.498639575097</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y34" t="n">
-        <v>3834.762940963861</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2139.066799289355</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D35" t="n">
         <v>1734.602869382415</v>
@@ -6980,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2549.287978953845</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>242.8511528851661</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="C37" t="n">
-        <v>242.8511528851661</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="D37" t="n">
-        <v>242.8511528851661</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="E37" t="n">
-        <v>242.8511528851661</v>
+        <v>258.2831716793286</v>
       </c>
       <c r="F37" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1541.684270642198</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1258.886123188322</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V37" t="n">
-        <v>985.0003781278438</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W37" t="n">
-        <v>705.9307136367181</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X37" t="n">
-        <v>467.5868514964014</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y37" t="n">
-        <v>242.8511528851661</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>899.2322418529996</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7172,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674168</v>
@@ -7211,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7262,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>898.981111021629</v>
+        <v>3790.308655650302</v>
       </c>
       <c r="C40" t="n">
-        <v>727.8877385833455</v>
+        <v>3619.215283212019</v>
       </c>
       <c r="D40" t="n">
-        <v>568.3930939062554</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="E40" t="n">
-        <v>407.4822787745749</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="F40" t="n">
-        <v>242.8511528851661</v>
+        <v>3295.08951264552</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="V40" t="n">
-        <v>1350.978107866783</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="W40" t="n">
-        <v>1350.978107866783</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="X40" t="n">
-        <v>1311.416516026909</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="Y40" t="n">
-        <v>1086.680817415673</v>
+        <v>3790.308655650302</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1453.991851457834</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C41" t="n">
-        <v>1043.867260771104</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D41" t="n">
-        <v>639.4033308641647</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E41" t="n">
-        <v>225.0631153810614</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>67.98781915067264</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>67.98781915067264</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>67.98781915067264</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>780.5792189629107</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1556.897809954665</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2310.078826593282</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2953.709683010387</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3399.390957533632</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3049.553402870113</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2665.793102005281</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2265.149704174234</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1864.213031122324</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2031.732603569666</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>1897.737532318612</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>1780.840374538005</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>1660.347558530333</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>1551.387678712837</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>1444.397566027176</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>1373.650353062892</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>1352.901761683132</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>1352.901761683132</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>1352.901761683132</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>1352.901761683132</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M42" t="n">
-        <v>2194.251023672706</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N42" t="n">
-        <v>3035.60028566228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O42" t="n">
-        <v>3399.390957533632</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P42" t="n">
-        <v>3399.390957533632</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>3399.390957533632</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>3399.390957533632</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>3291.400947647941</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>3132.059083834949</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>2934.708272973168</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>2720.996745966202</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>2507.76357770253</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>2331.437595841423</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>2172.035636205253</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2318.34229437842</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="C43" t="n">
-        <v>2147.248921940136</v>
+        <v>3883.776074698686</v>
       </c>
       <c r="D43" t="n">
-        <v>2147.248921940136</v>
+        <v>3724.281430021596</v>
       </c>
       <c r="E43" t="n">
-        <v>1986.338106808456</v>
+        <v>3563.370614889915</v>
       </c>
       <c r="F43" t="n">
-        <v>1986.338106808456</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G43" t="n">
-        <v>1986.338106808456</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>1986.338106808456</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>1869.992060912782</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>1884.074610317993</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>2038.626938040231</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>2298.524038320291</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>2587.788094760785</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>2868.626877155035</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>3128.187487481509</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>3333.862927731121</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>3314.118239209032</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>3127.726471088942</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>2888.177732065644</v>
+        <v>4337.363427183242</v>
       </c>
       <c r="U43" t="n">
-        <v>2605.379584611768</v>
+        <v>4328.755192197447</v>
       </c>
       <c r="V43" t="n">
-        <v>2331.49383955129</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="W43" t="n">
-        <v>2331.49383955129</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="X43" t="n">
-        <v>2331.49383955129</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="Y43" t="n">
-        <v>2331.49383955129</v>
+        <v>4054.869447136969</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1453.991851457834</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1043.867260771104</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>639.4033308641647</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>225.0631153810614</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>67.98781915067264</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>67.98781915067264</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>606.1473202597122</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1318.73872007195</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2095.057311063704</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2848.238327702322</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3399.390957533632</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>3049.553402870113</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>2665.793102005281</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>2265.149704174234</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>1864.213031122324</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>746.818661037207</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C45" t="n">
-        <v>612.8235897861528</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D45" t="n">
-        <v>495.9264320055452</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E45" t="n">
-        <v>375.4336159978732</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F45" t="n">
-        <v>266.4737361803777</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G45" t="n">
-        <v>159.4836234947164</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H45" t="n">
-        <v>88.73641053043247</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I45" t="n">
-        <v>67.98781915067264</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J45" t="n">
-        <v>67.98781915067264</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K45" t="n">
-        <v>67.98781915067264</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="L45" t="n">
-        <v>729.0759910699609</v>
+        <v>3469.596718162561</v>
       </c>
       <c r="M45" t="n">
-        <v>1410.519924455278</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="N45" t="n">
-        <v>1410.519924455278</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.477015001173</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="P45" t="n">
-        <v>2114.477015001173</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q45" t="n">
-        <v>2114.477015001173</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R45" t="n">
-        <v>2114.477015001173</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S45" t="n">
-        <v>2006.487005115482</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T45" t="n">
-        <v>1847.14514130249</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U45" t="n">
-        <v>1649.794330440709</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V45" t="n">
-        <v>1436.082803433742</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W45" t="n">
-        <v>1222.849635170071</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X45" t="n">
-        <v>1046.523653308964</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y45" t="n">
-        <v>887.1216936727936</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1157.321669451809</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="C46" t="n">
-        <v>986.2282970135257</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="D46" t="n">
-        <v>826.7336523364356</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="E46" t="n">
-        <v>665.8228372047552</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F46" t="n">
-        <v>501.1917113153464</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G46" t="n">
-        <v>333.9413202408898</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>184.3338650463465</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>67.98781915067264</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>82.07036855588316</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>236.6226962781211</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>496.5197965581817</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>785.783852998675</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1066.622635392925</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1326.1832457194</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1531.858685969012</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1597.386715771523</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1597.386715771523</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1597.386715771523</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1597.386715771523</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>1314.588568317647</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.588568317647</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.588568317647</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="X46" t="n">
-        <v>1314.588568317647</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.588568317647</v>
+        <v>3405.093950857723</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7988,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>270.21439869122</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>173.8482690683349</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>228.7885022587807</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>266.8093398682838</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>360.4692655976433</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>206.19843187237</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,10 +8461,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8471,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8538,22 +8540,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>907.4120231218254</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>144.2828090848179</v>
       </c>
       <c r="O9" t="n">
-        <v>59.16000394446588</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M11" t="n">
-        <v>277.5441627916929</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7732988419766</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>752.1609013342966</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>758.9638918818596</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>356.0091697870508</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>448.5973834639358</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>178.5117997957794</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>191.4271838211926</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>191.2399885596099</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>389.3004056737939</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>398.595458917175</v>
       </c>
       <c r="N30" t="n">
-        <v>174.1409094511112</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>346.553124795057</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10908,16 +10910,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11075,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>543.8324688599191</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>907.4120231218254</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>903.0411327771579</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>425.2168041225779</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>596.5640636445446</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11309,16 +11311,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>649.9096037382171</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
@@ -11382,7 +11384,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>745.8914891781321</v>
+        <v>197.7527798381155</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11394,7 +11396,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>45.84716204233317</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>247.4941013493521</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>22.42553959831346</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23425,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>64.47987594452474</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23668,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>52.46603520923551</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23899,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>68.12977581824433</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>4.022088210043563</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23972,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.30520108346087</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24206,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>129.1276841407384</v>
       </c>
       <c r="H25" t="n">
-        <v>29.46115378864143</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>102.5059940158878</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>23.97719740167145</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>76.74473988225778</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>98.35970845657641</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>125.9388090533455</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>89.1198177639956</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>211.2629873331146</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>42.06483528720059</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.46078111520831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,25 +25314,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>114.778320818413</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>157.0045112004823</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>4.897397675833872</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>196.7944475974378</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>261.3155646577644</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>32.28731256679805</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.8026796089625</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>271.4480133434007</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>261.3155646577644</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.12847945292444</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>153.0107897417199</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>724873.6286909173</v>
+        <v>728425.3381150407</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542386.8043533561</v>
+        <v>652199.1268142901</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>542386.8043533559</v>
+        <v>652199.1268142901</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652199.1268142899</v>
+        <v>652199.1268142902</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652199.1268142899</v>
+        <v>652199.1268142901</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652199.1268142901</v>
+        <v>652199.1268142899</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652199.1268142903</v>
+        <v>652199.1268142901</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652199.1268142901</v>
+        <v>652199.1268142899</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542386.8043533559</v>
+        <v>652199.1268142901</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>542386.8043533559</v>
+        <v>652199.1268142899</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876338</v>
       </c>
       <c r="C2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876336</v>
       </c>
       <c r="D2" t="n">
         <v>439782.4611876338</v>
       </c>
       <c r="E2" t="n">
-        <v>325197.7110221884</v>
+        <v>391025.7011723766</v>
       </c>
       <c r="F2" t="n">
-        <v>325197.7110221884</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="G2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="H2" t="n">
         <v>391025.7011723768</v>
@@ -26338,22 +26340,22 @@
         <v>391025.7011723766</v>
       </c>
       <c r="K2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723766</v>
       </c>
       <c r="L2" t="n">
         <v>391025.7011723767</v>
       </c>
       <c r="M2" t="n">
-        <v>391025.7011723766</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="N2" t="n">
         <v>391025.7011723766</v>
       </c>
       <c r="O2" t="n">
-        <v>325197.7110221884</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="P2" t="n">
-        <v>325197.7110221884</v>
+        <v>391025.7011723769</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>101819.596420627</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86528.21837027799</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82959.22311976596</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>121958.8827432036</v>
+        <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
-        <v>25068.2119926228</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="F4" t="n">
-        <v>25068.2119926228</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
@@ -26445,7 +26447,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="M4" t="n">
         <v>30192.61954398331</v>
@@ -26454,10 +26456,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>25068.2119926228</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
-        <v>25068.21199262279</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>85298.34255451121</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25025.78998402695</v>
+        <v>25025.7899840271</v>
       </c>
       <c r="C6" t="n">
-        <v>199981.2998771411</v>
+        <v>199981.299877141</v>
       </c>
       <c r="D6" t="n">
-        <v>130705.639469292</v>
+        <v>83073.92837490339</v>
       </c>
       <c r="E6" t="n">
-        <v>248458.7564750544</v>
+        <v>262998.9172025858</v>
       </c>
       <c r="F6" t="n">
-        <v>248458.7564750543</v>
+        <v>289967.8713835201</v>
       </c>
       <c r="G6" t="n">
-        <v>203439.6530132421</v>
+        <v>289967.8713835201</v>
       </c>
       <c r="H6" t="n">
         <v>289967.8713835201</v>
@@ -26546,22 +26548,22 @@
         <v>153373.070577625</v>
       </c>
       <c r="K6" t="n">
-        <v>289967.8713835201</v>
+        <v>289967.87138352</v>
       </c>
       <c r="L6" t="n">
-        <v>207008.6482637541</v>
+        <v>149968.5605187673</v>
       </c>
       <c r="M6" t="n">
-        <v>289967.87138352</v>
+        <v>267458.6066094728</v>
       </c>
       <c r="N6" t="n">
         <v>289967.87138352</v>
       </c>
       <c r="O6" t="n">
-        <v>248458.7564750543</v>
+        <v>289967.8713835203</v>
       </c>
       <c r="P6" t="n">
-        <v>248458.7564750544</v>
+        <v>289967.8713835203</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>849.847739383408</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>327.7841690133825</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>315.6984817493769</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>327.7841690133824</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>327.7841690133825</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>315.6984817493769</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>152.1234863376399</v>
+        <v>235.2752207238901</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>64.5486989451571</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56200429191361</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>92.31823261185258</v>
+        <v>334.7330154719022</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27786,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>89.73159075659456</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>2.376773726968281</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.247866524963626</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>19.8056831342837</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28019,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>7.469396084002113</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>12.64465583764593</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103359</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>135.5987266329976</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>306.2096305948396</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>132.8748405390621</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,10 +35181,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35191,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>91.08941569106788</v>
       </c>
       <c r="O9" t="n">
-        <v>1.408524944465878</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M11" t="n">
-        <v>184.2539383346474</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>120.9475160573612</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>694.4094223342966</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>663.4784938190147</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>298.4448860486334</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>390.8459044639358</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>120.947516057362</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>133.6757048211926</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>133.6757048211925</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>341.0311751787576</v>
       </c>
       <c r="N30" t="n">
-        <v>120.9475160573612</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>292.2934897922533</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37795,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>450.183105579035</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>367.4653251225778</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>542.3044286417409</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38029,16 +38031,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>556.719828112434</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>688.3272054397147</v>
+        <v>140.1884960996981</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1780472.089101567</v>
+        <v>1779159.443645988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.811029744</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>83.75729302035249</v>
       </c>
       <c r="F2" t="n">
-        <v>181.5448872019592</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -724,7 +724,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>181.80062112006</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>387.8281228960627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>69.90798579419391</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.45099468012255</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1144,16 +1144,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>11.62496282097257</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.1216231871071</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.508595795419</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>39.64108301376439</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>146.9568991155872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>132.9957010382506</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1584,19 +1584,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>372.3536886992978</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1666,7 +1666,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>66.81239433561407</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>227.5041307701016</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I17" t="n">
-        <v>49.12308702887178</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -2004,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>95.543314656299</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9383353088699</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2137,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>154.6296772135071</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>380.3593268106412</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2377,10 +2377,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36.45020302297358</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>167.540693466429</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>263.4078289815067</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2608,7 +2608,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>81.1549583480613</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>7.738048360274856</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>393.9842995440077</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>211.6544656203724</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>154.0313569259916</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>176.1849111071431</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>136.8680768990785</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>25.89026429995027</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>48.20649381210165</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>27.77250173713465</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3483,10 +3483,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>245.2379843596716</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.6804894878781</v>
+        <v>27.77250173713465</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>364.6399937545928</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>52.95563794360444</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>8.522152635936354</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.1247287958589</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>172.8035645510466</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>6.290917238643778</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>154.5540124983197</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>148.4698258519939</v>
       </c>
       <c r="D2" t="n">
-        <v>326.4832137633648</v>
+        <v>148.0462999854585</v>
       </c>
       <c r="E2" t="n">
-        <v>316.1834023206656</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,19 +4333,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>160.7347881224051</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524886</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.1650041644873</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>421.0716317262038</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>421.0716317262038</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>260.1608165945233</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>260.1608165945233</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>225.4020766599658</v>
       </c>
       <c r="Y4" t="n">
-        <v>779.8647105585317</v>
+        <v>225.4020766599658</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.5689113792441</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>226.4443206925142</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D5" t="n">
-        <v>226.0207948259788</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>215.7209833832796</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>198.7309753773712</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043734</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1046.790091043734</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>555.1290119472964</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6343672702064</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>234.7235521385259</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>234.7235521385259</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>67.47316106406927</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>67.47316106406927</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4761,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.705157697622</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.580567010892</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103952</v>
+        <v>926.3505956994404</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208491</v>
+        <v>512.0103802163371</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745366</v>
+        <v>495.0203722104287</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736876</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.9540978564</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
         <v>2013.200049908707</v>
@@ -4843,13 +4843,13 @@
         <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3336.500667705388</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2935.857269874341</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2554.926337362112</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4895,16 +4895,16 @@
         <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>837.2844189208142</v>
+        <v>747.105897386657</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.241509466709</v>
+        <v>1451.062987932551</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>2012.768880421081</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>421.742223795061</v>
+        <v>1059.005529872831</v>
       </c>
       <c r="C10" t="n">
-        <v>250.6488513567775</v>
+        <v>887.9121574345479</v>
       </c>
       <c r="D10" t="n">
-        <v>250.6488513567775</v>
+        <v>728.4175127574579</v>
       </c>
       <c r="E10" t="n">
-        <v>250.6488513567775</v>
+        <v>567.5066976257774</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="H10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1116.975776254216</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>834.1776288003407</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>834.1776288003407</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>834.1776288003407</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>834.1776288003407</v>
+        <v>1471.440934878111</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.4419301891054</v>
+        <v>1246.705236266876</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.881125286859</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>2092.756534600129</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.29260469319</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1273.952389210086</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>852.921977163774</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>444.1936930566062</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>133.2851956843242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>3314.038978003258</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2913.102304951348</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>549.0499539559215</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.708046067539</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.3161358179984</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="C13" t="n">
-        <v>257.8748235800315</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="D13" t="n">
-        <v>257.8748235800315</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="F13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3597043523594</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0158422120428</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0158422120428</v>
+        <v>415.2824960424961</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.649206862142</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6187948158295</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H14" t="n">
         <v>179.5954603735497</v>
@@ -5314,16 +5314,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>844.5103911440685</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.9445253234496</v>
+        <v>653.5232967918395</v>
       </c>
       <c r="C16" t="n">
-        <v>242.8511528851661</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8511528851661</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8511528851661</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>966.8999348750533</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V16" t="n">
-        <v>693.0141898145753</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W16" t="n">
-        <v>413.9445253234496</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X16" t="n">
-        <v>413.9445253234496</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.9445253234496</v>
+        <v>841.2230031858838</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.334316433571</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.870386526632</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.530171043528</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F17" t="n">
-        <v>862.4997589972158</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G17" t="n">
-        <v>453.771474890048</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H17" t="n">
-        <v>142.862977517766</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>360.8454687716326</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1068.179960412907</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>794.2942153524291</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2245508613034</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X19" t="n">
-        <v>280.9434040846672</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.9434040846672</v>
+        <v>548.5451751656769</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="21">
@@ -5840,19 +5840,19 @@
         <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1381.178282841916</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>1107.292537781438</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>828.2228732903122</v>
       </c>
       <c r="X22" t="n">
-        <v>93.2436976906228</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>589.8790111499956</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1697.773797548872</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.433582065768</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
         <v>899.2322418529996</v>
@@ -5992,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6025,16 +6025,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>886.6708173828915</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.328909494509</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O24" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>460.6501016978888</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="C25" t="n">
-        <v>289.5567292596053</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D25" t="n">
-        <v>130.0620845825153</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1453.409570608009</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1213.860831584711</v>
       </c>
       <c r="U25" t="n">
-        <v>1111.429368843485</v>
+        <v>931.0626841308356</v>
       </c>
       <c r="V25" t="n">
-        <v>1111.429368843485</v>
+        <v>931.0626841308356</v>
       </c>
       <c r="W25" t="n">
-        <v>1111.429368843485</v>
+        <v>651.9930196397099</v>
       </c>
       <c r="X25" t="n">
-        <v>873.0855067031684</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.3498080919331</v>
+        <v>413.6491574993933</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D26" t="n">
         <v>1648.251106699488</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.8258582872483</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C28" t="n">
-        <v>324.8258582872483</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D28" t="n">
-        <v>242.8511528851661</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>1332.028236392673</v>
       </c>
       <c r="W28" t="n">
-        <v>549.5615568984836</v>
+        <v>1052.958571901547</v>
       </c>
       <c r="X28" t="n">
-        <v>549.5615568984836</v>
+        <v>814.6147097612309</v>
       </c>
       <c r="Y28" t="n">
-        <v>324.8258582872483</v>
+        <v>589.8790111499956</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2238.282892603803</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6499,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.844444016082</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W29" t="n">
-        <v>3450.08414315125</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X29" t="n">
-        <v>3049.440745320202</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.504072268292</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>886.6708173828915</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.328909494509</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O30" t="n">
-        <v>1760.328909494509</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>955.8421396253117</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>955.8421396253117</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>676.772475134186</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X31" t="n">
-        <v>676.772475134186</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.0367765229507</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="N33" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
         <v>1760.328909494509</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.3370701289063</v>
+        <v>402.5876528552483</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>231.4942804169648</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>231.4942804169648</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>231.4942804169648</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1324.826325745621</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1042.028178291745</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V34" t="n">
-        <v>768.1424332312672</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W34" t="n">
-        <v>489.0727687401416</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X34" t="n">
-        <v>489.0727687401416</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y34" t="n">
-        <v>264.3370701289063</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2144.727460069145</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1734.602869382415</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N36" t="n">
-        <v>1820.802819284162</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O36" t="n">
-        <v>1820.802819284162</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>590.2873592492926</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="C37" t="n">
-        <v>419.1939868110092</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="D37" t="n">
-        <v>419.1939868110092</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="E37" t="n">
-        <v>258.2831716793286</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="F37" t="n">
-        <v>209.5897435862967</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="G37" t="n">
-        <v>209.5897435862967</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>828.6312213896092</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>828.6312213896092</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>590.2873592492926</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>590.2873592492926</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3450.08414315125</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3049.440745320202</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7265,13 +7265,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>966.9017898022406</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3790.308655650302</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="C40" t="n">
-        <v>3619.215283212019</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.720638534929</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.720638534929</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="F40" t="n">
-        <v>3295.08951264552</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>4294.114018752663</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>4294.114018752663</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>4015.044354261538</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>4015.044354261538</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>3790.308655650302</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
         <v>1320.262653899312</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2545.072354157471</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>549.0499539559215</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
-        <v>1253.007044501816</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4054.869447136969</v>
+        <v>470.8600116344998</v>
       </c>
       <c r="C43" t="n">
-        <v>3883.776074698686</v>
+        <v>470.8600116344998</v>
       </c>
       <c r="D43" t="n">
-        <v>3724.281430021596</v>
+        <v>311.3653669574098</v>
       </c>
       <c r="E43" t="n">
-        <v>3563.370614889915</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4337.363427183242</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>4328.755192197447</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V43" t="n">
-        <v>4054.869447136969</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W43" t="n">
-        <v>4054.869447136969</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="X43" t="n">
-        <v>4054.869447136969</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="Y43" t="n">
-        <v>4054.869447136969</v>
+        <v>658.5597180285441</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D44" t="n">
         <v>1734.602869382415</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.456071912701</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2769.519398860791</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>3469.596718162561</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>3608.383329301262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N45" t="n">
-        <v>3608.383329301262</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O45" t="n">
-        <v>4312.340419847156</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P45" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3405.093950857723</v>
+        <v>895.138129657802</v>
       </c>
       <c r="C46" t="n">
-        <v>3405.093950857723</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D46" t="n">
-        <v>3405.093950857723</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E46" t="n">
-        <v>3398.739489000507</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F46" t="n">
-        <v>3398.739489000507</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>3868.173511609275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>3868.173511609275</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W46" t="n">
-        <v>3868.173511609275</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.829649468958</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="Y46" t="n">
-        <v>3405.093950857723</v>
+        <v>1069.687184759869</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>67.67798733913797</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>499.2964884458369</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>266.8093398682838</v>
+        <v>502.6011371814508</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>531.8357165796273</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>519.8012871361426</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8543,7 +8543,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>144.2828090848179</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8552,10 +8552,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621995</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8707,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8771,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1609013342966</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>602.1626079691122</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>356.0091697870508</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>602.1626079691122</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0116646475603</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9488,13 +9488,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>247.7181192045195</v>
       </c>
       <c r="O21" t="n">
-        <v>191.4271838211926</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9503,7 +9503,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>191.2399885596099</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N27" t="n">
-        <v>514.5673383305425</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>398.595458917175</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>855.3505773129942</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>95.12716626047951</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10442,10 +10442,10 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>144.6334018173235</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
@@ -10676,19 +10676,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>346.553124795057</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10913,16 +10913,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O39" t="n">
-        <v>675.0496721821739</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11141,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>596.5640636445446</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>197.7527798381155</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>174.4915021836165</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>45.84716204233317</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42553959831346</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.98911359226406</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>102.5700443782866</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>52.46603520923551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I17" t="n">
-        <v>36.36515802722579</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>67.44149997421565</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.022088210043563</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.34048876583</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>129.1276841407384</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.98715697245979</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>76.74473988225778</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>263.4088392495984</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>10.65670172208843</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>134.6847134965117</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24852,10 +24852,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.9388090533455</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.30343051797982</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>26.1167377314361</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.2629873331146</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>114.778320818413</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25332,7 +25332,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.41008369958246</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>4.897397675833872</v>
+        <v>137.8053854265773</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.28731256679805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>106.3460690367593</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>271.4480133434007</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>13.01914477905731</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>153.0107897417199</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652199.1268142901</v>
+        <v>652199.1268142899</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652199.1268142899</v>
+        <v>652199.1268142901</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652199.1268142901</v>
+        <v>652199.1268142899</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652199.1268142901</v>
+        <v>652199.1268142902</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652199.1268142899</v>
+        <v>652199.1268142902</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>439782.4611876337</v>
+      </c>
+      <c r="C2" t="n">
         <v>439782.4611876338</v>
       </c>
-      <c r="C2" t="n">
-        <v>439782.4611876336</v>
-      </c>
       <c r="D2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="E2" t="n">
-        <v>391025.7011723766</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
+        <v>391025.7011723768</v>
+      </c>
+      <c r="G2" t="n">
         <v>391025.7011723767</v>
       </c>
-      <c r="G2" t="n">
-        <v>391025.7011723768</v>
-      </c>
       <c r="H2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="I2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="J2" t="n">
-        <v>391025.7011723766</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="K2" t="n">
-        <v>391025.7011723766</v>
+        <v>391025.701172377</v>
       </c>
       <c r="L2" t="n">
+        <v>391025.7011723769</v>
+      </c>
+      <c r="M2" t="n">
         <v>391025.7011723767</v>
-      </c>
-      <c r="M2" t="n">
-        <v>391025.7011723768</v>
       </c>
       <c r="N2" t="n">
         <v>391025.7011723766</v>
       </c>
       <c r="O2" t="n">
-        <v>391025.7011723769</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="P2" t="n">
-        <v>391025.7011723769</v>
+        <v>391025.7011723767</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
         <v>30192.61954398331</v>
@@ -26444,10 +26444,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="L4" t="n">
         <v>30192.61954398331</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30192.61954398332</v>
       </c>
       <c r="M4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25025.7899840271</v>
+        <v>25025.78998402695</v>
       </c>
       <c r="C6" t="n">
-        <v>199981.299877141</v>
+        <v>199981.2998771412</v>
       </c>
       <c r="D6" t="n">
-        <v>83073.92837490339</v>
+        <v>83073.92837490322</v>
       </c>
       <c r="E6" t="n">
-        <v>262998.9172025858</v>
+        <v>262818.3366099368</v>
       </c>
       <c r="F6" t="n">
-        <v>289967.8713835201</v>
+        <v>289787.290790871</v>
       </c>
       <c r="G6" t="n">
-        <v>289967.8713835201</v>
+        <v>289787.290790871</v>
       </c>
       <c r="H6" t="n">
-        <v>289967.8713835201</v>
+        <v>289787.290790871</v>
       </c>
       <c r="I6" t="n">
-        <v>289967.8713835201</v>
+        <v>289787.2907908711</v>
       </c>
       <c r="J6" t="n">
-        <v>153373.070577625</v>
+        <v>153192.4899849762</v>
       </c>
       <c r="K6" t="n">
-        <v>289967.87138352</v>
+        <v>289787.2907908713</v>
       </c>
       <c r="L6" t="n">
-        <v>149968.5605187673</v>
+        <v>149787.9799261185</v>
       </c>
       <c r="M6" t="n">
-        <v>267458.6066094728</v>
+        <v>267278.0260168235</v>
       </c>
       <c r="N6" t="n">
-        <v>289967.87138352</v>
+        <v>289787.2907908708</v>
       </c>
       <c r="O6" t="n">
-        <v>289967.8713835203</v>
+        <v>289787.290790871</v>
       </c>
       <c r="P6" t="n">
-        <v>289967.8713835203</v>
+        <v>289787.290790871</v>
       </c>
     </row>
   </sheetData>
@@ -27387,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>326.4395203079197</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>235.2752207238901</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.022088210043904</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>64.5486989451571</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18.19522188379989</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7330154719022</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>89.73159075659456</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.8056831342837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>12.64465583764593</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.48459394538798</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>203.2507825193993</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>209.2450561298663</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>442.6993269064101</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>426.5110626790972</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>91.08941569106788</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35272,10 +35272,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>120.9475160573608</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35427,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>694.4094223342966</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>298.4448860486334</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36208,13 +36208,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>194.5247258107695</v>
       </c>
       <c r="O21" t="n">
-        <v>133.6757048211926</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>133.6757048211925</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>341.0311751787576</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>802.1571839192443</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.30138347586412</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>90.3737668145198</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>292.2934897922533</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O39" t="n">
-        <v>617.2981931821739</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>542.3044286417409</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>140.1884960996981</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>120.2318671808127</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
